--- a/mfa/S_cerevisiae/run_files/Clim__D_0_22/scGEM_Clim__D_0_22_completeMFA.xlsx
+++ b/mfa/S_cerevisiae/run_files/Clim__D_0_22/scGEM_Clim__D_0_22_completeMFA.xlsx
@@ -1055,7 +1055,7 @@
     <t xml:space="preserve">Biomass reaction for S. cerevisiae</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423407 ala__L_c + 0.167283 arg__L_c + 0.201086 asn__L_c + 0.201086 asp__L_c + 0.006067 cys__L_c + 0.335432 gln__L_c + 0.335432 glu__L_c + 0.385270 gly_c + 0.083641 his__L_c + 0.255258 ile__L_c + 0.347133 leu__L_c + 0.284727 lys__L_c + 0.049405 met__L_c + 0.162949 phe__L_c + 0.182884 pro__L_c + 0.230989 ser__L_c + 0.241390 thr__L_c + 0.028169 trp__L_c + 0.084941 tyr__L_c + 0.317664 val__L_c + 0.564905 mannan_c + 0.876612 13BDglucan_c + 0.230687 16BDglucan_c + 0.020725 chtn_c + 0.422627 glycogen_c + 0.021184 tre_c + 0.002796 ergstest_c + 0.010922 ergst_c + 0.002839 pail_c + 0.010593 pc_c + 0.002847 pe_c + 0.002445 ps_c + 0.002817 tag_c + 0.001580 ipcbiom_c + 0.000608 ffabiom_c + 0.064239 ctp_c + 0.066108 gtp_c + 0.086083 utp_c + 0.003369 datp_c + 0.002274 dctp_c + 0.002274 dgtp_c + 0.003369 dttp_c + 0.001286 ca2_c + 0.000114 cu2_c + 0.000664 fe2_c + 0.603650 k_c + 0.063607 mg2_c + 0.000094 mn2_c + 0.001576 zn2_c + 0.031223 so4_c + 102.575175 atp_c + 93.860641 h2o_c --&gt; 4.324213 amp_c + 98.184854 adp_c + 98.184854 h_c + 98.079199 pi_c + 4.618037 ppi_c</t>
+    <t xml:space="preserve">0.423407 ala__L_c + 0.167283 arg__L_c + 0.201086 asn__L_c + 0.201086 asp__L_c + 0.006067 cys__L_c + 0.335432 gln__L_c + 0.335432 glu__L_c + 0.385270 gly_c + 0.083641 his__L_c + 0.255258 ile__L_c + 0.347133 leu__L_c + 0.284727 lys__L_c + 0.049405 met__L_c + 0.162949 phe__L_c + 0.182884 pro__L_c + 0.230989 ser__L_c + 0.241390 thr__L_c + 0.028169 trp__L_c + 0.084941 tyr__L_c + 0.317664 val__L_c + 0.564905 mannan_c + 0.876612 13BDglucan_c + 0.230687 16BDglucan_c + 0.020725 chtn_c + 0.422627 glycogen_c + 0.021184 tre_c + 0.002796 ergstest_c + 0.010922 ergst_c + 0.002839 pail_c + 0.010593 pc_c + 0.002847 pe_c + 0.002445 ps_c + 0.002817 tag_c + 0.001580 ipcbiom_c + 0.000608 ffabiom_c + 0.064239 ctp_c + 0.066108 gtp_c + 0.086083 utp_c + 0.003369 datp_c + 0.002274 dctp_c + 0.002274 dgtp_c + 0.003369 dttp_c + 0.001286 ca2_c + 0.000114 cu2_c + 0.000664 fe2_c + 0.603650 k_c + 0.063607 mg2_c + 0.000094 mn2_c + 0.001576 zn2_c + 0.031223 so4_c + 143.853263 atp_c + 135.138729 h2o_c --&gt; 4.324213 amp_c + 139.462942 adp_c + 139.462942 h_c + 139.357287 pi_c + 4.618037 ppi_c</t>
   </si>
   <si>
     <t xml:space="preserve">Pseudoreaction</t>
@@ -14755,9 +14755,9 @@
   <dimension ref="A1:N584"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A557" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A584" activeCellId="0" sqref="A584"/>
+      <selection pane="bottomLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
